--- a/06.adhoc.requests/11.combine/03.big.list/from.hr.xlsx
+++ b/06.adhoc.requests/11.combine/03.big.list/from.hr.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -6881,10 +6881,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7205,8 +7201,8 @@
   <dimension ref="A1:N1084"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1060" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1066" sqref="A1066"/>
+      <pane ySplit="1" topLeftCell="A1072" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A1084"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
